--- a/artfynd/A 44385-2025 artfynd.xlsx
+++ b/artfynd/A 44385-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130684443</v>
       </c>
       <c r="B2" t="n">
-        <v>101211</v>
+        <v>101215</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>130684446</v>
       </c>
       <c r="B3" t="n">
-        <v>101211</v>
+        <v>101215</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>130684449</v>
       </c>
       <c r="B4" t="n">
-        <v>101211</v>
+        <v>101215</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
